--- a/lp-add-english-complement/ig/StructureDefinition-EyeColor.xlsx
+++ b/lp-add-english-complement/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:05:03+00:00</t>
+    <t>2024-11-14T15:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add-english-complement/ig/StructureDefinition-EyeColor.xlsx
+++ b/lp-add-english-complement/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T15:12:30+00:00</t>
+    <t>2024-11-14T15:16:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-add-english-complement/ig/StructureDefinition-EyeColor.xlsx
+++ b/lp-add-english-complement/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T15:16:29+00:00</t>
+    <t>2024-11-14T17:45:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
